--- a/data/case1/11/Plm2_2.xlsx
+++ b/data/case1/11/Plm2_2.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.35993704507188795</v>
+        <v>-0.41603216931191866</v>
       </c>
       <c r="B1" s="0">
-        <v>0.35888973068607299</v>
+        <v>0.41461622916590102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.23812761320851195</v>
+        <v>-0.34808618811088898</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23570816540197193</v>
+        <v>0.34260388052615198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13275974812497182</v>
+        <v>-0.14792723104268291</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13213486538607455</v>
+        <v>0.14711292649773711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12013486558488751</v>
+        <v>-0.13511292656638574</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11959436133051682</v>
+        <v>0.13439207645659224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16289900430903792</v>
+        <v>-0.12839207669860908</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16069427062009467</v>
+        <v>0.12695877938107447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.059741291686992604</v>
+        <v>-0.025968792176827904</v>
       </c>
       <c r="B6" s="0">
-        <v>0.059691402007055139</v>
+        <v>0.025960334884598257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.039691402954721511</v>
+        <v>-0.0059603351791110981</v>
       </c>
       <c r="B7" s="0">
-        <v>0.039612541042476579</v>
+        <v>0.0059542154165637129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019612541994683319</v>
+        <v>0.01404578428875336</v>
       </c>
       <c r="B8" s="0">
-        <v>0.019586374712542209</v>
+        <v>-0.01408767992484794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.013586375528426231</v>
+        <v>0.020087679676915826</v>
       </c>
       <c r="B9" s="0">
-        <v>0.013573729809994717</v>
+        <v>-0.02015050436326149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0075737306282377403</v>
+        <v>0.02615050411661457</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0075757665671645213</v>
+        <v>-0.026165679922073082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.029330196233022576</v>
+        <v>0.030665679680378588</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.029359981147969449</v>
+        <v>-0.030706525279665442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.035359980331300278</v>
+        <v>-0.045396631347287109</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.035547575372637308</v>
+        <v>0.045152169682640686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.041547574566184409</v>
+        <v>-0.039152169932540559</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.041639842380433834</v>
+        <v>0.039085519960493365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027081704351133773</v>
+        <v>-0.027085520231297622</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02705084276177061</v>
+        <v>0.02705317428894638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050843566802868</v>
+        <v>-0.021053174540974773</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026615346238842</v>
+        <v>0.021027700956528506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026616153965389</v>
+        <v>-0.015027701209403777</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003846911211483</v>
+        <v>0.015004576578685924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090038477224005931</v>
+        <v>-0.0090045768326989517</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999157996541</v>
+        <v>0.0089999997358711781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.1107621182596219</v>
+        <v>-0.056530041294539757</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11057226214530402</v>
+        <v>0.056490339511032772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10157226291968291</v>
+        <v>-0.027097341575204936</v>
       </c>
       <c r="B19" s="0">
-        <v>0.10002240216949687</v>
+        <v>0.027014002139807314</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.091022402972765981</v>
+        <v>-0.018014002378434313</v>
       </c>
       <c r="B20" s="0">
-        <v>0.090663507190010151</v>
+        <v>0.018004316922233699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.081663508000000995</v>
+        <v>-0.0090043171612137485</v>
       </c>
       <c r="B21" s="0">
-        <v>0.081138420943198231</v>
+        <v>0.0089999997607748128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093948418069842887</v>
+        <v>-0.18567664972955455</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635625097013175</v>
+        <v>0.18426817394059114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084635625897246491</v>
+        <v>-0.12566523366214888</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126847708522412</v>
+        <v>0.12425171757615416</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126848851987475</v>
+        <v>-0.042131046038297093</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998849973075</v>
+        <v>0.041999999632198914</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094952979738792465</v>
+        <v>-0.094989987452649416</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094708711340775409</v>
+        <v>0.094739124063746516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088708712148733326</v>
+        <v>-0.088739124312883888</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088392255042606394</v>
+        <v>0.088416684469656559</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082392255855134877</v>
+        <v>-0.082416684720258981</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081301580447424193</v>
+        <v>0.08131671405579155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075301581277856577</v>
+        <v>-0.075316714312127608</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074546063279803398</v>
+        <v>0.074554428279172136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062546064181997707</v>
+        <v>-0.062554428559074893</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062172462171099951</v>
+        <v>0.062176038043318727</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042172463159495521</v>
+        <v>-0.042176038351379841</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019019535188384</v>
+        <v>0.042021051982597868</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019020482368816</v>
+        <v>-0.027021052277047986</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000481160698087</v>
+        <v>0.027000963830575486</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.006000482169277177</v>
+        <v>-0.0060009641451728157</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999991410775166</v>
+        <v>0.0059999997344588607</v>
       </c>
     </row>
   </sheetData>
